--- a/biology/Zoologie/Classification_IRAC_des_insecticides/Classification_IRAC_des_insecticides.xlsx
+++ b/biology/Zoologie/Classification_IRAC_des_insecticides/Classification_IRAC_des_insecticides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La classification IRAC des insecticides est un système de classification des substances actives insecticides (ou acaricides) établie par l'Insecticide Resistance Action Committee (IRAC). Cette classification compte 27 groupes en fonction du mode d'action des substances actives (26 groupes numérotés de 1 à 28, plus un groupe non déterminé).
 </t>
@@ -511,13 +523,15 @@
           <t>Principes de la classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>L'IRAC classe les insecticides en groupes ayant un mode d'action commun, puis en sous-groupes chimiques à l'intérieur de ces groupes. l'ensemble comprend une cinquantaine de classes chimiques d'insecticides.
 Le mode d'action est considéré comme la propriété la plus fondamentale d'un insecticide, davantage que la structure chimique elle-même, car des composés de structures chimiques très différentes peuvent se lier au même site cible et avoir exactement le même mode d'action.
 L'objectif poursuivi est de fournir un outil permettant aux utilisateurs de varier les traitements avec des substances de groupes différents, de façon à prévenir ou retarder le développement de phénomènes de résistance chez les insectes et les acariens nuisibles.
 Les groupes peuvent être regroupés en quatre catégories, qui permettent une meilleure compréhension globale du classement.
-Les quatre catégories sont les suivantes[1] : 
+Les quatre catégories sont les suivantes : 
 toxines neuromusculaires qui attaquent le système nerveux ou les muscles ;
 régulateurs de croissance des insectes (IGR), qui affectent la croissance et le développement ;
 poisons respiratoires, également appelés poisons métaboliques, qui affectent le métabolisme de l'énergie ;
@@ -553,9 +567,11 @@
           <t>Système de classification IRAC</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les substances active d'insecticides sont classées dans les groupes suivants, selon leur mode d'action[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les substances active d'insecticides sont classées dans les groupes suivants, selon leur mode d'action :
 1-5, 9, 14, 19, 22 : système nerveux ;
 6, 28 : système nerveux et contraction musculaire ;
 7, 11, 15-18 : régulation de la croissance ;
